--- a/modul.xlsx
+++ b/modul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kamusku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEBDC1-64A0-459E-9530-C3ADE210457D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA9F17-1E71-40E9-A93E-FE09701A9A31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="3405" activeTab="1" xr2:uid="{8F7877F6-9C5A-4CF3-BB59-C7BA70A6AA9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="3405" xr2:uid="{8F7877F6-9C5A-4CF3-BB59-C7BA70A6AA9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Modul" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>follow perbahasa</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>php artisan make:model Model/TranslateComment -m</t>
+  </si>
+  <si>
+    <t>kata_id</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82EE0-F738-4695-B9E7-2811E47FF973}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41497694-26A5-4633-A633-181A2B06CF48}">
-  <dimension ref="B1:P15"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,8 +686,8 @@
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
@@ -732,8 +736,8 @@
       <c r="N3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
-        <v>38</v>
+      <c r="P3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -743,8 +747,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
@@ -761,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -772,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>25</v>
@@ -789,7 +793,7 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -799,6 +803,9 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
@@ -814,16 +821,14 @@
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
         <v>31</v>
@@ -836,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -850,9 +855,6 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="P8" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -906,14 +908,42 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>